--- a/CaseStudies/SimulinkOpal/Device_Integration_Test_01_OpalReady_v3/UDP Data Format - Device Integration Test 01.xlsx
+++ b/CaseStudies/SimulinkOpal/Device_Integration_Test_01_OpalReady_v3/UDP Data Format - Device Integration Test 01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Waveform</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Num of breaker to display</t>
   </si>
   <si>
-    <t>Btu/Hr and degree F</t>
-  </si>
-  <si>
     <t>kw</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
     <t>Hz</t>
   </si>
   <si>
-    <t>Miscellaneous Data #1</t>
-  </si>
-  <si>
-    <t>PF, dV, dF, dA</t>
-  </si>
-  <si>
     <t>BESS Data</t>
   </si>
   <si>
@@ -151,20 +142,50 @@
     <t>PV data</t>
   </si>
   <si>
-    <t>Miscellaneous Data #2</t>
-  </si>
-  <si>
-    <t>Miscellaneous Data #3</t>
-  </si>
-  <si>
-    <t>[2^15, 1,1,1]</t>
+    <t>Misc Data Set#1</t>
+  </si>
+  <si>
+    <t>Misc Data Set#2</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>on/off</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Waveform Data</t>
+  </si>
+  <si>
+    <t>Relay Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> on/off state</t>
+  </si>
+  <si>
+    <t>Misc Data</t>
+  </si>
+  <si>
+    <t>Misc Data Set#3</t>
+  </si>
+  <si>
+    <t>int17</t>
+  </si>
+  <si>
+    <t>Btu/Hr, and degree F</t>
+  </si>
+  <si>
+    <t>VRMSLL, Hz, degrees-angle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,14 +197,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +254,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -254,11 +279,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,19 +290,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,572 +617,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16">
+      <c r="C1" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E19" si="0">RIGHT(B4,2)/8*C4*D4*$B$1</f>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F19" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <f>FLOOR(1/60/0.00008,1)</f>
-        <v>208</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>166</v>
+      </c>
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>6240</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4">
-        <f>0.8*2^15</f>
-        <v>26214.400000000001</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>4980</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="I10" s="3"/>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="K13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>63.75</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3">
+        <v>100</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="K19" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>SUM(E6:E19)+E4+D5*E5</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <f>SUM(F4:F21)</f>
+        <v>5323.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="21">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+    </row>
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="1"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4">
-        <f>0.8*2^15</f>
-        <v>26214.400000000001</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>CEILING($B$23*8/16,1)</f>
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
-        <f>2^15</f>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="G26" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
         <v>4</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17" si="1">RIGHT(B17,2)/8*C17*D17*$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="J19" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <f>SUM(D6:D19)+D4+C5*D5</f>
-        <v>649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <f>SUM(E4:E21)</f>
-        <v>6490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CaseStudies/SimulinkOpal/Device_Integration_Test_01_OpalReady_v3/UDP Data Format - Device Integration Test 01.xlsx
+++ b/CaseStudies/SimulinkOpal/Device_Integration_Test_01_OpalReady_v3/UDP Data Format - Device Integration Test 01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Waveform</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Misc Data Set#2</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>on/off</t>
   </si>
   <si>
@@ -169,16 +166,22 @@
     <t>Misc Data</t>
   </si>
   <si>
-    <t>Misc Data Set#3</t>
-  </si>
-  <si>
-    <t>int17</t>
-  </si>
-  <si>
     <t>Btu/Hr, and degree F</t>
   </si>
   <si>
     <t>VRMSLL, Hz, degrees-angle</t>
+  </si>
+  <si>
+    <t>Power Factor Data</t>
+  </si>
+  <si>
+    <t>Power Factor</t>
+  </si>
+  <si>
+    <t>Import/Export</t>
+  </si>
+  <si>
+    <t>Lagging/Leading</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1</v>
@@ -703,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F19" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
+        <f t="shared" ref="F4:F21" si="0">RIGHT(C4,2)/8*D4*E4*$C$1</f>
         <v>10</v>
       </c>
       <c r="G4" s="6"/>
@@ -716,7 +719,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -939,7 +942,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -956,7 +959,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -983,10 +986,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1001,218 +1004,257 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
       <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="12" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>63.75</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>10</v>
+      </c>
       <c r="I16" s="3">
-        <v>100</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="12" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I17" s="3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="K19" s="13" t="s">
+      <c r="I21" s="4"/>
+      <c r="K21" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <f>SUM(E6:E19)+E4+D5*E5</f>
-        <v>532</v>
-      </c>
-    </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+      <c r="E22">
+        <f>SUM(E6:E21)+E4+D5*E5</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <f>SUM(F4:F21)</f>
-        <v>5323.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <f>SUM(F4:F23)</f>
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C25" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="18">
-        <v>2</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1226,6 +1268,12 @@
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
